--- a/projeto_psql/produtos-com-categoria.xlsx
+++ b/projeto_psql/produtos-com-categoria.xlsx
@@ -238,6 +238,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -297,12 +298,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,15 +331,15 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,8 +366,8 @@
       <c r="C2" s="0" t="n">
         <v>2.59</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>6</v>
+      <c r="D2" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,7 +381,7 @@
         <v>10.47</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,7 +395,7 @@
         <v>10.47</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,7 +409,7 @@
         <v>10.47</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,7 +423,7 @@
         <v>10.47</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,8 +436,8 @@
       <c r="C7" s="0" t="n">
         <v>3.97</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>7</v>
+      <c r="D7" s="2" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,8 +450,8 @@
       <c r="C8" s="0" t="n">
         <v>8.63</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>8</v>
+      <c r="D8" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,8 +464,8 @@
       <c r="C9" s="0" t="n">
         <v>4.56</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>9</v>
+      <c r="D9" s="2" t="n">
+        <v>915</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,8 +478,8 @@
       <c r="C10" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>7</v>
+      <c r="D10" s="2" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,8 +492,8 @@
       <c r="C11" s="0" t="n">
         <v>17.93</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>5</v>
+      <c r="D11" s="2" t="n">
+        <v>598</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,8 +506,8 @@
       <c r="C12" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>5</v>
+      <c r="D12" s="2" t="n">
+        <v>598</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,8 +520,8 @@
       <c r="C13" s="0" t="n">
         <v>14.96</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>10</v>
+      <c r="D13" s="2" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,8 +534,8 @@
       <c r="C14" s="0" t="n">
         <v>8.63</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>10</v>
+      <c r="D14" s="2" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,8 +548,8 @@
       <c r="C15" s="0" t="n">
         <v>7.12</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>3</v>
+      <c r="D15" s="2" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,8 +562,8 @@
       <c r="C16" s="0" t="n">
         <v>5.33</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>4</v>
+      <c r="D16" s="2" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,8 +576,8 @@
       <c r="C17" s="0" t="n">
         <v>5.55</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>4</v>
+      <c r="D17" s="2" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,8 +590,8 @@
       <c r="C18" s="0" t="n">
         <v>2.55</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>2</v>
+      <c r="D18" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,8 +604,8 @@
       <c r="C19" s="0" t="n">
         <v>6.77</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>2</v>
+      <c r="D19" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,8 +618,8 @@
       <c r="C20" s="0" t="n">
         <v>4.6</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>8</v>
+      <c r="D20" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,8 +632,8 @@
       <c r="C21" s="0" t="n">
         <v>16.85</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>8</v>
+      <c r="D21" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,8 +646,8 @@
       <c r="C22" s="0" t="n">
         <v>6.39</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>4</v>
+      <c r="D22" s="2" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,8 +660,8 @@
       <c r="C23" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <v>6</v>
+      <c r="D23" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,8 +674,8 @@
       <c r="C24" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <v>6</v>
+      <c r="D24" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,8 +688,8 @@
       <c r="C25" s="0" t="n">
         <v>15.41</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>6</v>
+      <c r="D25" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,8 +702,8 @@
       <c r="C26" s="0" t="n">
         <v>3.32</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>8</v>
+      <c r="D26" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,8 +716,8 @@
       <c r="C27" s="0" t="n">
         <v>5.4</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>8</v>
+      <c r="D27" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,8 +730,8 @@
       <c r="C28" s="0" t="n">
         <v>3.14</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>6</v>
+      <c r="D28" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,8 +744,8 @@
       <c r="C29" s="0" t="n">
         <v>5.3</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>3</v>
+      <c r="D29" s="2" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,8 +758,8 @@
       <c r="C30" s="0" t="n">
         <v>10.84</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <v>8</v>
+      <c r="D30" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,8 +772,8 @@
       <c r="C31" s="0" t="n">
         <v>3.1</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>6</v>
+      <c r="D31" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +787,7 @@
         <v>2.8</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,8 +800,8 @@
       <c r="C33" s="0" t="n">
         <v>7.08</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>3</v>
+      <c r="D33" s="2" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,8 +814,8 @@
       <c r="C34" s="0" t="n">
         <v>7.42</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <v>2</v>
+      <c r="D34" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,8 +828,8 @@
       <c r="C35" s="0" t="n">
         <v>13.61</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>3</v>
+      <c r="D35" s="2" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,8 +842,8 @@
       <c r="C36" s="0" t="n">
         <v>8.9</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <v>8</v>
+      <c r="D36" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,8 +856,8 @@
       <c r="C37" s="0" t="n">
         <v>8.82</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <v>8</v>
+      <c r="D37" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,7 +871,7 @@
         <v>3.96</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,7 +885,7 @@
         <v>3.49</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,8 +898,8 @@
       <c r="C40" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <v>8</v>
+      <c r="D40" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,8 +912,8 @@
       <c r="C41" s="0" t="n">
         <v>10.72</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>7</v>
+      <c r="D41" s="2" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,8 +926,8 @@
       <c r="C42" s="0" t="n">
         <v>5.29</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>5</v>
+      <c r="D42" s="2" t="n">
+        <v>598</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,8 +940,8 @@
       <c r="C43" s="0" t="n">
         <v>2.95</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <v>7</v>
+      <c r="D43" s="2" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,8 +954,8 @@
       <c r="C44" s="0" t="n">
         <v>4.69</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <v>5</v>
+      <c r="D44" s="2" t="n">
+        <v>598</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,8 +968,8 @@
       <c r="C45" s="0" t="n">
         <v>1.45</v>
       </c>
-      <c r="D45" s="1" t="n">
-        <v>7</v>
+      <c r="D45" s="2" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,8 +982,8 @@
       <c r="C46" s="0" t="n">
         <v>2.48</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>7</v>
+      <c r="D46" s="2" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,8 +996,8 @@
       <c r="C47" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>7</v>
+      <c r="D47" s="2" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,8 +1010,8 @@
       <c r="C48" s="0" t="n">
         <v>11.81</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <v>10</v>
+      <c r="D48" s="2" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,7 +1025,7 @@
         <v>3.49</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,8 +1038,8 @@
       <c r="C50" s="0" t="n">
         <v>4.98</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <v>8</v>
+      <c r="D50" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,8 +1052,8 @@
       <c r="C51" s="0" t="n">
         <v>8.9</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>3</v>
+      <c r="D51" s="2" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,8 +1066,8 @@
       <c r="C52" s="0" t="n">
         <v>1.78</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <v>9</v>
+      <c r="D52" s="2" t="n">
+        <v>915</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,8 +1080,8 @@
       <c r="C53" s="0" t="n">
         <v>7.08</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <v>8</v>
+      <c r="D53" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,8 +1094,8 @@
       <c r="C54" s="0" t="n">
         <v>5.96</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>10</v>
+      <c r="D54" s="2" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,8 +1108,8 @@
       <c r="C55" s="0" t="n">
         <v>0.86</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>2</v>
+      <c r="D55" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,8 +1122,8 @@
       <c r="C56" s="0" t="n">
         <v>1.71</v>
       </c>
-      <c r="D56" s="1" t="n">
-        <v>6</v>
+      <c r="D56" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,8 +1136,8 @@
       <c r="C57" s="0" t="n">
         <v>3.35</v>
       </c>
-      <c r="D57" s="1" t="n">
-        <v>8</v>
+      <c r="D57" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,8 +1150,8 @@
       <c r="C58" s="0" t="n">
         <v>10.03</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <v>3</v>
+      <c r="D58" s="2" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,8 +1164,8 @@
       <c r="C59" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <v>8</v>
+      <c r="D59" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,8 +1178,8 @@
       <c r="C60" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>8</v>
+      <c r="D60" s="2" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,8 +1192,8 @@
       <c r="C61" s="0" t="n">
         <v>4.82</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>4</v>
+      <c r="D61" s="2" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,8 +1206,8 @@
       <c r="C62" s="0" t="n">
         <v>2.55</v>
       </c>
-      <c r="D62" s="1" t="n">
-        <v>2</v>
+      <c r="D62" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,8 +1220,8 @@
       <c r="C63" s="0" t="n">
         <v>13.89</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <v>5</v>
+      <c r="D63" s="2" t="n">
+        <v>598</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,8 +1234,8 @@
       <c r="C64" s="0" t="n">
         <v>1.02</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <v>6</v>
+      <c r="D64" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,8 +1248,8 @@
       <c r="C65" s="0" t="n">
         <v>6.34</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <v>6</v>
+      <c r="D65" s="2" t="n">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
